--- a/Tier2.xlsx
+++ b/Tier2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35340" windowHeight="19760" tabRatio="500"/>
+    <workbookView xWindow="700" yWindow="760" windowWidth="35340" windowHeight="19760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Updated:</t>
+  </si>
+  <si>
+    <t>Tier 2 Pricing</t>
+  </si>
+  <si>
+    <t>5PM</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,12 +398,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Tier2.xlsx
+++ b/Tier2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="760" windowWidth="35340" windowHeight="19760" tabRatio="500"/>
+    <workbookView xWindow="700" yWindow="740" windowWidth="35340" windowHeight="19760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <t>Tier 2 Pricing</t>
   </si>
   <si>
-    <t>5PM</t>
+    <t>9AM</t>
   </si>
 </sst>
 </file>

--- a/Tier2.xlsx
+++ b/Tier2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="740" windowWidth="35340" windowHeight="19760" tabRatio="500"/>
+    <workbookView xWindow="1240" yWindow="2380" windowWidth="35340" windowHeight="19760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <t>Tier 2 Pricing</t>
   </si>
   <si>
-    <t>9AM</t>
+    <t>5PM</t>
   </si>
 </sst>
 </file>

--- a/Tier2.xlsx
+++ b/Tier2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="2380" windowWidth="35340" windowHeight="19760" tabRatio="500"/>
+    <workbookView xWindow="2000" yWindow="1480" windowWidth="35340" windowHeight="19760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <t>Tier 2 Pricing</t>
   </si>
   <si>
-    <t>5PM</t>
+    <t>6PM</t>
   </si>
 </sst>
 </file>
